--- a/core/seed_products_product.xlsx
+++ b/core/seed_products_product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan.cheng\Documents\Visual Studio Code\Django\p_sys01_repo01\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21345D92-8F8F-4E80-A10D-016DA5DD68AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0603C878-B5D4-47AC-B661-FF1FBCA66374}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
